--- a/pcbs/controller_8266/Outputs/2020-06-23/Bill of Materials-controller_8266.xlsx
+++ b/pcbs/controller_8266/Outputs/2020-06-23/Bill of Materials-controller_8266.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\wifi-christmas-tree-lights\pcbs\controller_8266\Outputs\2020-06-23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8D760BB-276E-4538-9EE9-17B3F1547CE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6276CF5F-EB37-48A6-9A6A-EB00C6ADE461}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1875" yWindow="780" windowWidth="20775" windowHeight="11835" xr2:uid="{A31D2FE0-11FC-42A0-AA8C-0E22A821C9B1}"/>
+    <workbookView xWindow="975" yWindow="-120" windowWidth="27945" windowHeight="16440" xr2:uid="{A31D2FE0-11FC-42A0-AA8C-0E22A821C9B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-controller_82" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Bill of Materials-controller_82'!$A$1:$G$21</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Bill of Materials-controller_82'!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="74">
   <si>
     <t>Designator</t>
   </si>
@@ -56,9 +57,6 @@
     <t>Footprint</t>
   </si>
   <si>
-    <t>Model:Footprint</t>
-  </si>
-  <si>
     <t>LibRef</t>
   </si>
   <si>
@@ -77,9 +75,6 @@
     <t>CAPC_0603_1608X08L</t>
   </si>
   <si>
-    <t>Chip Capacitor 0603</t>
-  </si>
-  <si>
     <t>C2, C33</t>
   </si>
   <si>
@@ -95,9 +90,6 @@
     <t>CAPC3224X25L</t>
   </si>
   <si>
-    <t>Chip Capacitor, 2-Leads, Body 3.20x2.45mm, IPC High Density</t>
-  </si>
-  <si>
     <t>C42</t>
   </si>
   <si>
@@ -116,9 +108,6 @@
     <t>SODFL470X110-2L</t>
   </si>
   <si>
-    <t>SODFL, 2-Leads, Body 2.50x4.70mm, IPC High Density</t>
-  </si>
-  <si>
     <t>D Schottky</t>
   </si>
   <si>
@@ -140,24 +129,12 @@
     <t>INDP5150X20L</t>
   </si>
   <si>
-    <t>Precision Wire Wound Inductor, 2-Leads, Body 5.15x5.00mm, IPC High Density</t>
-  </si>
-  <si>
     <t>LED1</t>
   </si>
   <si>
-    <t>RGB LED Common anode</t>
-  </si>
-  <si>
-    <t>Dot is _not_ anode!</t>
-  </si>
-  <si>
     <t>PLCC-4</t>
   </si>
   <si>
-    <t>LED</t>
-  </si>
-  <si>
     <t>RGB_LED</t>
   </si>
   <si>
@@ -173,9 +150,6 @@
     <t>DPAK229P994X241-3L</t>
   </si>
   <si>
-    <t>D-PAK, 3-Pads, Body 6.21x6.73mm (max), IPC High Density</t>
-  </si>
-  <si>
     <t>Q4</t>
   </si>
   <si>
@@ -185,9 +159,6 @@
     <t>SOT23</t>
   </si>
   <si>
-    <t>SOT23, 3-Leads, Body 2.90x2.45mm, Pitch 0.95mm, IPC High Density</t>
-  </si>
-  <si>
     <t>R1, R2, R3, R4, R5, R14, R23</t>
   </si>
   <si>
@@ -203,9 +174,6 @@
     <t>RESC_0603_1608X08L</t>
   </si>
   <si>
-    <t>Chip Resistor, 2-Leads, Body 1.60x0.80mm, IPC High Density</t>
-  </si>
-  <si>
     <t>R6, R7, R8, R13, R31</t>
   </si>
   <si>
@@ -248,24 +216,15 @@
     <t>EVQP7C01P</t>
   </si>
   <si>
-    <t>Side actuated tactile switch</t>
-  </si>
-  <si>
     <t>U1</t>
   </si>
   <si>
     <t>M74VHC1GT125</t>
   </si>
   <si>
-    <t>Level shifter non inverting</t>
-  </si>
-  <si>
     <t>SOT65P210X100-5L</t>
   </si>
   <si>
-    <t>SOT23, 5-Leads, Body 2.00x2.10mm, Pitch 0.65mm, IPC High Density</t>
-  </si>
-  <si>
     <t>U2</t>
   </si>
   <si>
@@ -275,9 +234,6 @@
     <t>Micro8 TSOP</t>
   </si>
   <si>
-    <t>TSOP, 8-Leads</t>
-  </si>
-  <si>
     <t>LDO LP2950 5V</t>
   </si>
   <si>
@@ -290,19 +246,36 @@
     <t>TSOP95P280X125-6L</t>
   </si>
   <si>
-    <t>TSOP, 6-Leads, Body 2.90x1.65mm, Pitch 0.95mm, IPC High Density</t>
-  </si>
-  <si>
     <t>BD9G102G-LB</t>
+  </si>
+  <si>
+    <t>Levelshift non invert</t>
+  </si>
+  <si>
+    <t>RGB LED CA</t>
+  </si>
+  <si>
+    <t>ESP8266 ESP12E</t>
+  </si>
+  <si>
+    <t>Dot != anode!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -353,13 +326,13 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -679,552 +652,491 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="146.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="52.28515625" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="4">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B4" s="3">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="4">
+      <c r="G5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="3">
+        <v>3</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="3">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="3">
         <v>5</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="4">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="4">
-        <v>1</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="4">
-        <v>1</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="C13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="4">
-        <v>1</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="4">
-        <v>3</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="4">
-        <v>1</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="4">
-        <v>7</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="4">
-        <v>5</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="4">
-        <v>1</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="4">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="4">
-        <v>1</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="F20" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="4">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="G20" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    </row>
+    <row r="21" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="4">
-        <v>1</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="3" t="s">
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="G21" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" s="4">
-        <v>1</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20" s="4">
-        <v>1</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21" s="4">
-        <v>1</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.30555555555555558" right="0.30555555555555558" top="0.30555555555555558" bottom="0.30555555555555558" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="77" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>